--- a/biology/Botanique/Salvinia_molesta/Salvinia_molesta.xlsx
+++ b/biology/Botanique/Salvinia_molesta/Salvinia_molesta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvinia molesta est une fougère aquatique, originaire du sud-est du Brésil.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-C'est une plante flottante libre, c'est-à-dire qui est non ancrée au sol, et qui reste à la surface de l'eau.
-Feuillage
-Les frondes mesurent 0,5 à 4 cm en largeur et en longueur, avec une surface tomenteuse, et produites par paires avec une troisième fronde modifiée semblable à une racine qui est suspendue dans l'eau.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante flottante libre, c'est-à-dire qui est non ancrée au sol, et qui reste à la surface de l'eau.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se reproduit uniquement par reproduction asexuée. Elle est capable de croître extrêmement rapidement, débutant à partir de petits fragments et doublant en population en très peu de jours, avec pour résultat le recouvrement de mares, réservoirs et lacs par un tapis flottant épais de 10 à 20 cm (rarement plus de 60 cm).
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les frondes mesurent 0,5 à 4 cm en largeur et en longueur, avec une surface tomenteuse, et produites par paires avec une troisième fronde modifiée semblable à une racine qui est suspendue dans l'eau.
 </t>
         </is>
       </c>
@@ -573,19 +594,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se reproduit uniquement par reproduction asexuée. Elle est capable de croître extrêmement rapidement, débutant à partir de petits fragments et doublant en population en très peu de jours, avec pour résultat le recouvrement de mares, réservoirs et lacs par un tapis flottant épais de 10 à 20 cm (rarement plus de 60 cm).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salvinia_molesta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salvinia_molesta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aire d'origine
-L'espèce est originaire des zones tropicales d'Amérique du Sud[1].
-Caractère envahissant
-Cette espèce est considérée comme une plante envahissante adventice dans certaines parties du monde, notamment la Nouvelle-Calédonie où elle a été introduite en 1956 par des aquariophiles[1],[2],[3].
-Les impacts négatifs sont multiples. Premièrement, le tapis qu'elle forme empêche la lumière solaire d'atteindre d'autres organismes photosynthétiques, comme les algues qui oxygènent l'eau. Deuxièmement, elle fournit des gîtes larvaires propices au développement des moustiques, qui en Nouvelle-Calédonie peuvent être porteurs de la dengue. Troisièmement, elle perturbe les activités économiques liées à son milieu (pêche, barrages hydro-électriques)[1]. En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[4].
-En Europe, Salvinia molesta est inscrite depuis 2019 dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne[5]. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne[6].
-Lutte biologique
-La lutte biologique a donné des résultats efficaces en Australie, avec un petit charançon, Cyrtobagous salviniae, que l'on trouve dans le biotope d'origine de Salvinia molesta, un papillon, Samea multiplicalis, et une sauterelle, Paulinia acuminata. Cette lutte nécessite 1 à 3 ans de suivi[1].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aire d'origine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire des zones tropicales d'Amérique du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Salvinia_molesta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salvinia_molesta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme une plante envahissante adventice dans certaines parties du monde, notamment la Nouvelle-Calédonie où elle a été introduite en 1956 par des aquariophiles.
+Les impacts négatifs sont multiples. Premièrement, le tapis qu'elle forme empêche la lumière solaire d'atteindre d'autres organismes photosynthétiques, comme les algues qui oxygènent l'eau. Deuxièmement, elle fournit des gîtes larvaires propices au développement des moustiques, qui en Nouvelle-Calédonie peuvent être porteurs de la dengue. Troisièmement, elle perturbe les activités économiques liées à son milieu (pêche, barrages hydro-électriques). En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
+En Europe, Salvinia molesta est inscrite depuis 2019 dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Salvinia_molesta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salvinia_molesta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lutte biologique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lutte biologique a donné des résultats efficaces en Australie, avec un petit charançon, Cyrtobagous salviniae, que l'on trouve dans le biotope d'origine de Salvinia molesta, un papillon, Samea multiplicalis, et une sauterelle, Paulinia acuminata. Cette lutte nécessite 1 à 3 ans de suivi.
 </t>
         </is>
       </c>
